--- a/API_AutoTest/src/main/resources/testCase/rest_info_2.xlsx
+++ b/API_AutoTest/src/main/resources/testCase/rest_info_2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\51000765\Desktop\inbox\柠檬班\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xyouwen/git/auto_Test_Framwork/API_AutoTest/src/main/resources/testCase/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="8270" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="api_info" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">request_data!$A$1:$K$29</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -139,9 +147,6 @@
     <t>http://101.37.151.72:8080/futureloan/mvc/api/financelog/getFinanceLogList</t>
   </si>
   <si>
-    <t>IsExcute(是否执行)</t>
-  </si>
-  <si>
     <t>CaseId(用例编号)</t>
   </si>
   <si>
@@ -360,41 +365,84 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Header(请求头）</t>
+    <t>ExpectedReponseData(期望响应数据)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DependCase（依赖的case）</t>
+    <t>IsExcute(是否执行)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DependResponseData（依赖的数据）</t>
+    <t>Header(请求头)</t>
+    <rPh sb="7" eb="8">
+      <t>yge</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fiy</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>udi</t>
+    </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DependField（依赖的字段）</t>
+    <t>DependCase(依赖的case)</t>
+    <rPh sb="11" eb="12">
+      <t>wygk</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>r</t>
+    </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ExpectedReponseData(期望响应数据)</t>
+    <t>DependResponseData(依赖的数据)</t>
+    <rPh sb="19" eb="20">
+      <t>wygk</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>r</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ovt</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>rnd</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DependField(依赖的字段)</t>
+    <rPh sb="12" eb="13">
+      <t>wygk</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>r</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>pb</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>wdm</t>
+    </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -402,13 +450,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -505,7 +553,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -547,12 +595,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -582,12 +630,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -793,20 +841,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="22.6328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="5" customWidth="1"/>
     <col min="4" max="4" width="76" style="6" customWidth="1"/>
     <col min="5" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -820,7 +868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -834,7 +882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -848,7 +896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -862,7 +910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -876,7 +924,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -890,7 +938,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -904,7 +952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -918,7 +966,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -932,7 +980,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -946,7 +994,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -960,7 +1008,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -974,7 +1022,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -988,7 +1036,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1017,75 +1065,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.90625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.08984375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.90625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.6328125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="33.1796875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="24.36328125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="25.36328125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="21.453125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="35.453125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="21.08984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="33.1640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="21.5" style="4" customWidth="1"/>
+    <col min="13" max="13" width="35.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21.1640625" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="42" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="116.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" ht="116.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
@@ -1093,31 +1141,31 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L2" s="14"/>
       <c r="M2" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="78" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="70" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
@@ -1125,27 +1173,27 @@
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14" ht="26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="28" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
@@ -1153,17 +1201,17 @@
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -1171,7 +1219,7 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:14" ht="26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="28" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
@@ -1179,17 +1227,17 @@
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
@@ -1197,7 +1245,7 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:14" ht="26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="28" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
@@ -1205,17 +1253,17 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
@@ -1223,7 +1271,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:14" ht="26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="28" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
@@ -1231,17 +1279,17 @@
         <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
@@ -1249,25 +1297,25 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:14" ht="26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="28" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="10">
         <v>2</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
@@ -1275,25 +1323,25 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:14" ht="26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="28" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="10">
         <v>2</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
@@ -1301,25 +1349,25 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:14" ht="26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="28" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="10">
         <v>2</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
@@ -1327,25 +1375,25 @@
       <c r="M10" s="10"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:14" ht="26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="28" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="10">
         <v>2</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="15"/>
@@ -1353,7 +1401,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:14" ht="26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="28" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -1361,17 +1409,17 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="15"/>
@@ -1379,7 +1427,7 @@
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="1:14" ht="26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="28" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -1387,17 +1435,17 @@
         <v>3</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -1405,7 +1453,7 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="1:14" ht="26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="28" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -1413,17 +1461,17 @@
         <v>3</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
@@ -1431,7 +1479,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:14" ht="78" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="84" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -1439,31 +1487,31 @@
         <v>3</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="11" t="s">
         <v>76</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>77</v>
       </c>
       <c r="L15" s="14"/>
       <c r="M15" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="1:14" ht="26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="28" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -1471,17 +1519,17 @@
         <v>3</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
@@ -1489,7 +1537,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="1:14" ht="26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="28" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -1497,17 +1545,17 @@
         <v>3</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
@@ -1515,7 +1563,7 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="1:14" ht="26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="28" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -1523,17 +1571,17 @@
         <v>4</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
@@ -1541,7 +1589,7 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="1:14" ht="26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="28" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -1549,17 +1597,17 @@
         <v>4</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
@@ -1567,7 +1615,7 @@
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="1:14" ht="26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="28" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -1575,17 +1623,17 @@
         <v>4</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
@@ -1593,7 +1641,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="1:14" ht="26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="28" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -1601,17 +1649,17 @@
         <v>4</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
@@ -1619,7 +1667,7 @@
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="1:14" ht="26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="28" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -1627,17 +1675,17 @@
         <v>4</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
@@ -1645,7 +1693,7 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="1:14" ht="52" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="56" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -1653,17 +1701,17 @@
         <v>7</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
@@ -1671,7 +1719,7 @@
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
     </row>
-    <row r="24" spans="1:14" ht="52" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="56" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -1679,29 +1727,29 @@
         <v>8</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>91</v>
       </c>
       <c r="K24" s="11"/>
       <c r="L24" s="14"/>
       <c r="M24" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N24" s="9"/>
     </row>
-    <row r="25" spans="1:14" ht="130" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="126" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -1709,29 +1757,29 @@
         <v>6</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J25" s="11" t="s">
         <v>94</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>95</v>
       </c>
       <c r="K25" s="11"/>
       <c r="L25" s="14"/>
       <c r="M25" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N25" s="9"/>
     </row>
-    <row r="26" spans="1:14" ht="52" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="42" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -1739,27 +1787,27 @@
         <v>6</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="14"/>
       <c r="M26" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N26" s="9"/>
     </row>
-    <row r="27" spans="1:14" ht="52" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="42" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -1767,27 +1815,27 @@
         <v>10</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="14"/>
       <c r="M27" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N27" s="9"/>
     </row>
-    <row r="28" spans="1:14" ht="39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="28" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -1795,27 +1843,27 @@
         <v>8</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
       <c r="L28" s="14"/>
       <c r="M28" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N28" s="9"/>
     </row>
-    <row r="29" spans="1:14" ht="260" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="266" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -1823,25 +1871,25 @@
         <v>10</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J29" s="11"/>
       <c r="K29" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N29" s="9"/>
     </row>
